--- a/Projects/ProjectMGMTAsset/SQL Work.xlsx
+++ b/Projects/ProjectMGMTAsset/SQL Work.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\School\2025\Spring\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F4DF0E-50CA-4315-A8D5-93D31D5D4536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374D338A-ACA7-41D6-B70B-A6F94CBA2393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{48CFCADA-87D6-48E7-AB3F-15140B2FDBB5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48CFCADA-87D6-48E7-AB3F-15140B2FDBB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Part Views" sheetId="1" r:id="rId1"/>
     <sheet name="AssetReport" sheetId="2" r:id="rId2"/>
     <sheet name="#1 Classifier" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE36ABD-C697-4072-A718-3F2BC3B263AF}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,7 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC12BC9-9854-4DE4-9F5D-0D78D92369F8}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
